--- a/実験パラメータ調整.xlsx
+++ b/実験パラメータ調整.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365tsukuba-my.sharepoint.com/personal/s2111993_u_tsukuba_ac_jp/Documents/mlab/本実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{DC46AE7F-F2C5-C742-B374-BE17BD0937F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C543E36B-6D0F-2346-8DD8-8779D2923096}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{DC46AE7F-F2C5-C742-B374-BE17BD0937F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FF1ABF-6805-0A49-BBB1-D76C9CEA8FE4}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1000" windowWidth="25380" windowHeight="16400" xr2:uid="{313C52C9-FF38-0747-B09B-0874C961E1B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{313C52C9-FF38-0747-B09B-0874C961E1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
